--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/41.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/41.xlsx
@@ -479,13 +479,13 @@
         <v>0.1829576607909486</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.795604696999874</v>
+        <v>-1.80425157104274</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04272765019742805</v>
+        <v>0.04160380054481935</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07899911854836064</v>
+        <v>-0.07662077565607531</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1888275895332243</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.838211033584802</v>
+        <v>-1.842179135789601</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02045213159278071</v>
+        <v>0.01785500004263458</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06255219274988975</v>
+        <v>-0.06278199954159966</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2078411611347364</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.93906158672478</v>
+        <v>-1.942706228000151</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01781856932252421</v>
+        <v>-0.01586993365035396</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06674852772727739</v>
+        <v>-0.06360048948467602</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.2381821857029469</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.983141992216806</v>
+        <v>-1.991165554687636</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0374701980519633</v>
+        <v>-0.03642032729805574</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06251599031009984</v>
+        <v>-0.06034541794182619</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.2743643372423357</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.941210909834916</v>
+        <v>-1.954499566266497</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02133965009687385</v>
+        <v>-0.022827098166503</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07914078026927771</v>
+        <v>-0.0749932398846504</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.310623098309267</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.813926279571815</v>
+        <v>-1.829712117339339</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01977530337062142</v>
+        <v>0.01818239601986512</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06880419669969609</v>
+        <v>-0.06772441958248382</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.3398083611495173</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.543789969935948</v>
+        <v>-1.56308193529617</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05648142927935346</v>
+        <v>0.05647670722198955</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06445360784842098</v>
+        <v>-0.06404908493424671</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.3593596202777714</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.139082895524479</v>
+        <v>-1.163552596784219</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04960768777663335</v>
+        <v>0.05237481339187996</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04940441102966511</v>
+        <v>-0.0496043114580703</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.3716751737667081</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6333828192425546</v>
+        <v>-0.6589023912562026</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04358706463765822</v>
+        <v>0.04741193110241889</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02074939292638609</v>
+        <v>-0.01934851590842848</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3883086790235351</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.126103214772405</v>
+        <v>-0.1509585507168642</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05148054225066072</v>
+        <v>-0.04670969029399834</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01782666769845117</v>
+        <v>0.01938337260941755</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4233950670146583</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4592886626114125</v>
+        <v>0.432631074773064</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2311375107367999</v>
+        <v>-0.2301600448624722</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07841695975379984</v>
+        <v>0.0808503933153307</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4923361397001453</v>
       </c>
       <c r="E13" t="n">
-        <v>1.040685679465369</v>
+        <v>1.010048971288372</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5130695196676939</v>
+        <v>-0.5171068787138302</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1694157272135565</v>
+        <v>0.172459880194152</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6025898568617239</v>
       </c>
       <c r="E14" t="n">
-        <v>1.630332130534062</v>
+        <v>1.596216840098991</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8233905374703672</v>
+        <v>-0.8302343726097825</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2733828382137095</v>
+        <v>0.2803746311505272</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7515845310063244</v>
       </c>
       <c r="E15" t="n">
-        <v>2.31455666854435</v>
+        <v>2.273589672874257</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.160762647891714</v>
+        <v>-1.168574504790729</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3956463474798618</v>
+        <v>0.4017204872689611</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9243867413709429</v>
       </c>
       <c r="E16" t="n">
-        <v>2.858076489263326</v>
+        <v>2.812020689774068</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.509927309569846</v>
+        <v>-1.518038230101908</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5233134643894393</v>
+        <v>0.5265433516263482</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.106175336410387</v>
       </c>
       <c r="E17" t="n">
-        <v>3.356451867564278</v>
+        <v>3.310255980373224</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.851187247220805</v>
+        <v>-1.859317055982323</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6434142713829243</v>
+        <v>0.6503179192489491</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.283319686850984</v>
       </c>
       <c r="E18" t="n">
-        <v>3.768059441803529</v>
+        <v>3.72651635513504</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.161263505050116</v>
+        <v>-2.174576558778077</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7981938676569061</v>
+        <v>0.8029096289443231</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.446628014482635</v>
       </c>
       <c r="E19" t="n">
-        <v>4.115319540344887</v>
+        <v>4.077039395314854</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.514803939885463</v>
+        <v>-2.530565380356608</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9417979281696531</v>
+        <v>0.9469575628492768</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.588770029023963</v>
       </c>
       <c r="E20" t="n">
-        <v>4.427252353727772</v>
+        <v>4.386925983840048</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.836642842608255</v>
+        <v>-2.856438494087293</v>
       </c>
       <c r="G20" t="n">
-        <v>1.062915551515498</v>
+        <v>1.071665523810809</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.704345590688865</v>
       </c>
       <c r="E21" t="n">
-        <v>4.643810626493685</v>
+        <v>4.610672801932941</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.109373922765585</v>
+        <v>-3.131606155844397</v>
       </c>
       <c r="G21" t="n">
-        <v>1.171470928254243</v>
+        <v>1.182978582050072</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.791683767634791</v>
       </c>
       <c r="E22" t="n">
-        <v>4.811586898652246</v>
+        <v>4.778729249495094</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.326363476770734</v>
+        <v>-3.354118155936629</v>
       </c>
       <c r="G22" t="n">
-        <v>1.256445924536782</v>
+        <v>1.271188187626884</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.852473112815383</v>
       </c>
       <c r="E23" t="n">
-        <v>4.924011214391148</v>
+        <v>4.892763786795086</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.466232389908634</v>
+        <v>-3.494018549456956</v>
       </c>
       <c r="G23" t="n">
-        <v>1.333442217893448</v>
+        <v>1.349747481971001</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.892847391074232</v>
       </c>
       <c r="E24" t="n">
-        <v>4.9937796119428</v>
+        <v>4.96238737458758</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.581782707622439</v>
+        <v>-3.610843035649453</v>
       </c>
       <c r="G24" t="n">
-        <v>1.394766002859323</v>
+        <v>1.411981049988988</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.918526120082113</v>
       </c>
       <c r="E25" t="n">
-        <v>4.987138825270033</v>
+        <v>4.95921730007728</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.683405317141415</v>
+        <v>-3.712224033233309</v>
       </c>
       <c r="G25" t="n">
-        <v>1.433952782903224</v>
+        <v>1.451320509887656</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.933801943659106</v>
       </c>
       <c r="E26" t="n">
-        <v>4.975218778464423</v>
+        <v>4.950739633089954</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.701874857510757</v>
+        <v>-3.729230522829403</v>
       </c>
       <c r="G26" t="n">
-        <v>1.458639698801704</v>
+        <v>1.477351638115727</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.939636644366121</v>
       </c>
       <c r="E27" t="n">
-        <v>4.932608506831692</v>
+        <v>4.912210793038756</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.656931102530698</v>
+        <v>-3.679446659051344</v>
       </c>
       <c r="G27" t="n">
-        <v>1.454545675067201</v>
+        <v>1.472473752858816</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.939095108833911</v>
       </c>
       <c r="E28" t="n">
-        <v>4.781808030896358</v>
+        <v>4.761928169394331</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.588169290207117</v>
+        <v>-3.608711813759212</v>
       </c>
       <c r="G28" t="n">
-        <v>1.406942614781705</v>
+        <v>1.426186572558727</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.933074717230383</v>
       </c>
       <c r="E29" t="n">
-        <v>4.653257889259732</v>
+        <v>4.635207037976655</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.49910656626656</v>
+        <v>-3.518767639110727</v>
       </c>
       <c r="G29" t="n">
-        <v>1.362741009817339</v>
+        <v>1.380793435119536</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.922551486515693</v>
       </c>
       <c r="E30" t="n">
-        <v>4.50098413142686</v>
+        <v>4.487526267939739</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.370451752358366</v>
+        <v>-3.39478057890675</v>
       </c>
       <c r="G30" t="n">
-        <v>1.310238028007233</v>
+        <v>1.327788341209736</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.905966003946757</v>
       </c>
       <c r="E31" t="n">
-        <v>4.345401785401015</v>
+        <v>4.334297080500239</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.248740723803791</v>
+        <v>-3.274231176463695</v>
       </c>
       <c r="G31" t="n">
-        <v>1.245936198863857</v>
+        <v>1.259571926511685</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.881592690849639</v>
       </c>
       <c r="E32" t="n">
-        <v>4.208425919408065</v>
+        <v>4.195256101420142</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.109502205323971</v>
+        <v>-3.136496633254278</v>
       </c>
       <c r="G32" t="n">
-        <v>1.175999381266225</v>
+        <v>1.190861269809546</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.848335822054151</v>
       </c>
       <c r="E33" t="n">
-        <v>4.00357834890463</v>
+        <v>3.991570157028227</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.985068910699106</v>
+        <v>-3.015397111128328</v>
       </c>
       <c r="G33" t="n">
-        <v>1.106530047347619</v>
+        <v>1.120241327913269</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.805622855072076</v>
       </c>
       <c r="E34" t="n">
-        <v>3.748149673938197</v>
+        <v>3.735085315231401</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.907155751204283</v>
+        <v>-2.93616020155249</v>
       </c>
       <c r="G34" t="n">
-        <v>1.047743581205281</v>
+        <v>1.060992100149269</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.755794638812037</v>
       </c>
       <c r="E35" t="n">
-        <v>3.507139014122878</v>
+        <v>3.494232057328212</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.814002938577026</v>
+        <v>-2.846274265611493</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9509634415129871</v>
+        <v>0.9667555753569969</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.699290267814611</v>
       </c>
       <c r="E36" t="n">
-        <v>3.246454689310422</v>
+        <v>3.236823266307183</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.750778525522181</v>
+        <v>-2.778273491533061</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8792385381935572</v>
+        <v>0.8944199526185024</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.637855594330708</v>
       </c>
       <c r="E37" t="n">
-        <v>3.000084494387075</v>
+        <v>2.987900012369086</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.652786391106485</v>
+        <v>-2.679677720784347</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8275697865177409</v>
+        <v>0.839584274470629</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.570794768049574</v>
       </c>
       <c r="E38" t="n">
-        <v>2.710978106301292</v>
+        <v>2.703197729784703</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.566332603859484</v>
+        <v>-2.589316431068717</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7602112122407992</v>
+        <v>0.7734864895098492</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.499936893769712</v>
       </c>
       <c r="E39" t="n">
-        <v>2.45498278445119</v>
+        <v>2.448639487392349</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.450527295048028</v>
+        <v>-2.477198262048908</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6907151199971313</v>
+        <v>0.7039494727690275</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.426463529436686</v>
       </c>
       <c r="E40" t="n">
-        <v>2.219204164195075</v>
+        <v>2.213723429614706</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.353251339332525</v>
+        <v>-2.381542759018783</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6395846828607997</v>
+        <v>0.6499149703538961</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.353237386938195</v>
       </c>
       <c r="E41" t="n">
-        <v>2.01859227914706</v>
+        <v>2.01249295505202</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.259127356907426</v>
+        <v>-2.285555924963625</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5750892493655041</v>
+        <v>0.5850323281547605</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.281503299676373</v>
       </c>
       <c r="E42" t="n">
-        <v>1.762559180838048</v>
+        <v>1.76119450625988</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.161836448010269</v>
+        <v>-2.187474071458015</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5057725953016644</v>
+        <v>0.5147917248667173</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.212302178260467</v>
       </c>
       <c r="E43" t="n">
-        <v>1.545657771903691</v>
+        <v>1.544186064025275</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.079961482387132</v>
+        <v>-2.105945390041564</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4526714862254644</v>
+        <v>0.4612310022070975</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.144093901590358</v>
       </c>
       <c r="E44" t="n">
-        <v>1.312830437500015</v>
+        <v>1.315172577952511</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.991390639421982</v>
+        <v>-2.017334409588821</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4078261074404865</v>
+        <v>0.4127354730798233</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.076014134794804</v>
       </c>
       <c r="E45" t="n">
-        <v>1.102716199016708</v>
+        <v>1.104394103400014</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.913580578179604</v>
+        <v>-1.938183284055094</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3493859255048345</v>
+        <v>0.3533902301494235</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.006751737220099</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9017611778002488</v>
+        <v>0.9051405968536814</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.846871286790199</v>
+        <v>-1.871165484917914</v>
       </c>
       <c r="G46" t="n">
-        <v>0.279771781827069</v>
+        <v>0.2843285671832345</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.935785692530045</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7400889517940913</v>
+        <v>0.7447952689667803</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.801027979882316</v>
+        <v>-1.822809256482875</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2428751996046596</v>
+        <v>0.2457682467496103</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.8639922692668218</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5802488840451278</v>
+        <v>0.5840721764907671</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.733395526278268</v>
+        <v>-1.756527311284903</v>
       </c>
       <c r="G48" t="n">
-        <v>0.199863553095997</v>
+        <v>0.2008772214101147</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7926658246888058</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4515224522669149</v>
+        <v>0.4567041232142368</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.685586269487881</v>
+        <v>-1.708230895576473</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1437356052495358</v>
+        <v>0.1476013962114503</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.7234249077531903</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3552995153435612</v>
+        <v>0.3557449627548893</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.620667424848955</v>
+        <v>-1.645737614403472</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1125259541123858</v>
+        <v>0.1138969247670386</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.6577949386132885</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2234045830741701</v>
+        <v>0.2250966536295683</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.571717004195625</v>
+        <v>-1.594155433779327</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0751272597902814</v>
+        <v>0.07690747541647248</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.5974214316133235</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1167695096634124</v>
+        <v>0.1182616797904055</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.525471535402251</v>
+        <v>-1.550381962015955</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04567578801162423</v>
+        <v>0.04634946819554093</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.5432030613438593</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02261955592281176</v>
+        <v>0.02702995750069629</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.510789872048318</v>
+        <v>-1.531644051386431</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00651104423542052</v>
+        <v>0.007002138201266335</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.4958969647773063</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.07044117658584881</v>
+        <v>-0.06477313373004503</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.492543842394201</v>
+        <v>-1.513910364956297</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.0148184888773251</v>
+        <v>-0.01379695046760095</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.4545574345497274</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1422636690907992</v>
+        <v>-0.1368333031223118</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.478645253553116</v>
+        <v>-1.500919198138642</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04465402132157964</v>
+        <v>-0.04354905989842656</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.4189678438443004</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2144717962804683</v>
+        <v>-0.2058807999164091</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.484809112432129</v>
+        <v>-1.50656913977455</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07441242682889045</v>
+        <v>-0.07446909151725727</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3882806294679376</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2681427002785791</v>
+        <v>-0.2611461852843975</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.480334963079832</v>
+        <v>-1.502960700938969</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1123651758816926</v>
+        <v>-0.1082176354970653</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3633747251618175</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3549152263976434</v>
+        <v>-0.3456836042512149</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.479639246628217</v>
+        <v>-1.502171330349636</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1312266470122388</v>
+        <v>-0.128291101351013</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3426882392208673</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4303107423079464</v>
+        <v>-0.4199615665853944</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.502268132525596</v>
+        <v>-1.522299099863269</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1543159335025986</v>
+        <v>-0.1518258352527009</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.3256903916323097</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4941639760017514</v>
+        <v>-0.487896231860732</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.517827311539654</v>
+        <v>-1.537042936972493</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1892261035939265</v>
+        <v>-0.1845465447462996</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.3102738099496126</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5676092822207628</v>
+        <v>-0.5600319541708212</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.54817361318877</v>
+        <v>-1.56610798705687</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2106060053185538</v>
+        <v>-0.2066158668460565</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2954744462884675</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6233122449044728</v>
+        <v>-0.6150171641352181</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.573725452594405</v>
+        <v>-1.594471024613148</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2219373689727974</v>
+        <v>-0.2191434850324887</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2805192978377398</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6767407499579033</v>
+        <v>-0.6674981096776257</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.61987490622138</v>
+        <v>-1.63949111952059</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2563706112703713</v>
+        <v>-0.2527015726986194</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.2659721947238631</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7342129101339554</v>
+        <v>-0.7235819849886905</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.663025853422278</v>
+        <v>-1.681241976713091</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2757515087109466</v>
+        <v>-0.2738107431343829</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2521912396229247</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8132806126542528</v>
+        <v>-0.7997582143831586</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.707550919316071</v>
+        <v>-1.725860696744602</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3057523131629377</v>
+        <v>-0.300869705848663</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.2394284323232962</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.89422375895758</v>
+        <v>-0.8750891955094882</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.746569279313994</v>
+        <v>-1.764894796933737</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.323803164446014</v>
+        <v>-0.3207747516566315</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.2269604830374487</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9465362844540084</v>
+        <v>-0.9278086049487728</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.77474894364264</v>
+        <v>-1.794831066601755</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3481988868070534</v>
+        <v>-0.3444810536425412</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.2140871681569916</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9953836068548932</v>
+        <v>-0.9697876949138622</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.806897497185646</v>
+        <v>-1.828086155587036</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3746298158919345</v>
+        <v>-0.3693694439885477</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.2002039013020729</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.021195159415543</v>
+        <v>-0.9928549451365237</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.839389186897096</v>
+        <v>-1.865520265339369</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3925012289951825</v>
+        <v>-0.3878799088550437</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1845310084120353</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.018634230305186</v>
+        <v>-0.9903876701638848</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.873191247527028</v>
+        <v>-1.897507481922442</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4190502095141612</v>
+        <v>-0.4116255613189859</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.167657411443997</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.018354054901595</v>
+        <v>-0.9947587212637369</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.898034778328077</v>
+        <v>-1.923145105370187</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4288280162956811</v>
+        <v>-0.4211420809263698</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1492080456455959</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.025351356905337</v>
+        <v>-0.9976391762557172</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.942496096447458</v>
+        <v>-1.966643910796892</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4334461883975773</v>
+        <v>-0.4261175553688013</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1295998415248646</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9904766022442384</v>
+        <v>-0.9610314265420664</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.959163384922911</v>
+        <v>-1.987264348295492</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4456369664920511</v>
+        <v>-0.4385050858534377</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.108854781788094</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.934983771113222</v>
+        <v>-0.9076485680431536</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.999731366745754</v>
+        <v>-2.0258049934901</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.448279744596715</v>
+        <v>-0.4391472856549284</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.08800646723163776</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8770866257744188</v>
+        <v>-0.84890381340753</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.023490398372227</v>
+        <v>-2.050953884000682</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4545049902214592</v>
+        <v>-0.4458352929013351</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.06779564288664906</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7857384260697333</v>
+        <v>-0.7588966779941927</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.060049353493118</v>
+        <v>-2.083462887922466</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.444939676021315</v>
+        <v>-0.4374851214628349</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.04866543746182309</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.6947553988011897</v>
+        <v>-0.6648081109993228</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.057685963782485</v>
+        <v>-2.078245014535354</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.428769777588193</v>
+        <v>-0.4229049823422266</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.03095185155188913</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5821233125382764</v>
+        <v>-0.5530747896546722</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.066213999381692</v>
+        <v>-2.083545523926334</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4207281138974678</v>
+        <v>-0.4148916509956848</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.01498952078676588</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.424205122136421</v>
+        <v>-0.3955626961861124</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.051643304375812</v>
+        <v>-2.067104894204348</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3949299404993495</v>
+        <v>-0.3896412362517792</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.001049523660151614</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2865744641890102</v>
+        <v>-0.2560306231401703</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.018607791057953</v>
+        <v>-2.03402216031285</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3761692065925666</v>
+        <v>-0.370287097136266</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.01014280268186167</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.08385339351845196</v>
+        <v>-0.05506458378986238</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.982080316319488</v>
+        <v>-1.999684933181676</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3512477618450128</v>
+        <v>-0.3440969929769438</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.01888491536403382</v>
       </c>
       <c r="E82" t="n">
-        <v>0.09056681335111985</v>
+        <v>0.1173125462602611</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.938164395825638</v>
+        <v>-1.956299457131704</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3354619240774882</v>
+        <v>-0.3247334097467027</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.02477700774544642</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2940198029130828</v>
+        <v>0.3231548968483586</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.882602307853285</v>
+        <v>-1.898809195735757</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2935835713361621</v>
+        <v>-0.2851531249224756</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.02813727398308706</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5121284845134766</v>
+        <v>0.5353830430115729</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.804587624125138</v>
+        <v>-1.818174557180205</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2659768499676693</v>
+        <v>-0.2552294474074283</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.02976351488627384</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6985159587622976</v>
+        <v>0.718981355377449</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.689364702388563</v>
+        <v>-1.702469198582952</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2433896755770045</v>
+        <v>-0.2303268908893301</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.03027084713229848</v>
       </c>
       <c r="E86" t="n">
-        <v>0.910090886990172</v>
+        <v>0.932767780470751</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.602887304854743</v>
+        <v>-1.612626548167791</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2094003066716374</v>
+        <v>-0.1964776096857588</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.03163803822917809</v>
       </c>
       <c r="E87" t="n">
-        <v>1.125353742019254</v>
+        <v>1.144635476255188</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.487695863500595</v>
+        <v>-1.49289406164869</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1679044405767874</v>
+        <v>-0.1576969265751524</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.03544572307219498</v>
       </c>
       <c r="E88" t="n">
-        <v>1.299723580276944</v>
+        <v>1.315010453983017</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.329170101717917</v>
+        <v>-1.337022096104526</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.143141971760485</v>
+        <v>-0.1312707195476352</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.04340673265778107</v>
       </c>
       <c r="E89" t="n">
-        <v>1.435391436380093</v>
+        <v>1.448610048960776</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.147012803857592</v>
+        <v>-1.155402325774124</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1153841445563473</v>
+        <v>-0.103604185452533</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.0571030465857957</v>
       </c>
       <c r="E90" t="n">
-        <v>1.551969588580107</v>
+        <v>1.564083239737637</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9627297931739498</v>
+        <v>-0.9701418492161548</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.08840860485549616</v>
+        <v>-0.07837580697632557</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.07745372897721545</v>
       </c>
       <c r="E91" t="n">
-        <v>1.624264286821448</v>
+        <v>1.639577918852582</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7699148118432976</v>
+        <v>-0.7755010057047937</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09237041098380999</v>
+        <v>-0.08180087258427587</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1043464648881936</v>
       </c>
       <c r="E92" t="n">
-        <v>1.692653843622842</v>
+        <v>1.702222305861228</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5710170336183787</v>
+        <v>-0.5723392096802713</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08524797445992438</v>
+        <v>-0.07541979906652288</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1376218357193838</v>
       </c>
       <c r="E93" t="n">
-        <v>1.705438026926046</v>
+        <v>1.71168688283761</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4003083638368339</v>
+        <v>-0.400261143263195</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.08751771003283997</v>
+        <v>-0.07962400413951702</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1745931074148552</v>
       </c>
       <c r="E94" t="n">
-        <v>1.693270859118391</v>
+        <v>1.698578451595417</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2162016432947777</v>
+        <v>-0.2154319479444617</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1030894811998677</v>
+        <v>-0.09825881651659586</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2116026205908732</v>
       </c>
       <c r="E95" t="n">
-        <v>1.662001395254632</v>
+        <v>1.666328373819087</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07296590325641511</v>
+        <v>-0.07412123329144982</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.109645270840085</v>
+        <v>-0.1039331554488848</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2447370840097391</v>
       </c>
       <c r="E96" t="n">
-        <v>1.606584904050999</v>
+        <v>1.606197695347159</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02870943590312412</v>
+        <v>0.03236116026454171</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1189461498278508</v>
+        <v>-0.1160546767020214</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2719480136870168</v>
       </c>
       <c r="E97" t="n">
-        <v>1.51900805416095</v>
+        <v>1.513843697423962</v>
       </c>
       <c r="F97" t="n">
-        <v>0.09110827592884729</v>
+        <v>0.09520702172071428</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1389251745345204</v>
+        <v>-0.1375872582814149</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2902909625224412</v>
       </c>
       <c r="E98" t="n">
-        <v>1.381909414676538</v>
+        <v>1.38059196067201</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1407701532250053</v>
+        <v>0.143820602282086</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.147675146829831</v>
+        <v>-0.146131034071835</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2996118601898783</v>
       </c>
       <c r="E99" t="n">
-        <v>1.254313128627419</v>
+        <v>1.252891789360885</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1492525422696947</v>
+        <v>0.1547458690030341</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1617846542331703</v>
+        <v>-0.1609094996017271</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2972329240325286</v>
       </c>
       <c r="E100" t="n">
-        <v>1.124807557384163</v>
+        <v>1.124360535953713</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1644607150197019</v>
+        <v>0.1720978557962529</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1689259789865115</v>
+        <v>-0.168069712584524</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2864502882973602</v>
       </c>
       <c r="E101" t="n">
-        <v>1.016249032607176</v>
+        <v>1.013522831489083</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1773031370303942</v>
+        <v>0.1839911442768009</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.19294551077756</v>
+        <v>-0.1918783258133182</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2646018846419146</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8988382242919934</v>
+        <v>0.8971918002911129</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1691969385556957</v>
+        <v>0.1794658393030614</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1920121174386287</v>
+        <v>-0.1936144689041128</v>
       </c>
     </row>
   </sheetData>
